--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c6a9ebbaaad6f6c/Desktop/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{07962266-53D2-49EF-B05B-C26E3E0B00EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A695C222-BB67-45DD-854C-936DE41E1905}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{07962266-53D2-49EF-B05B-C26E3E0B00EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33291F3E-25E0-41DF-BD9E-1DADCE6594A7}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{EEF7AAB3-A8D8-4563-81EF-DA7446F4CF39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEF7AAB3-A8D8-4563-81EF-DA7446F4CF39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Architecture</t>
   </si>
@@ -87,6 +87,90 @@
   </si>
   <si>
     <t>Conflated Gaussian</t>
+  </si>
+  <si>
+    <t>Lv1 CG Set12</t>
+  </si>
+  <si>
+    <t>Lv1 CG Set68</t>
+  </si>
+  <si>
+    <t>Tested with AG NL25, torch.poisson, S&amp;P threshold 220, CG NL25, 15, 50</t>
+  </si>
+  <si>
+    <t>Trained with same as testing above</t>
+  </si>
+  <si>
+    <t>Lv2 CG Set12</t>
+  </si>
+  <si>
+    <t>Lv2 CG Set68</t>
+  </si>
+  <si>
+    <t>Lv1 P Set12</t>
+  </si>
+  <si>
+    <t>Lv1 P Set68</t>
+  </si>
+  <si>
+    <t>Lv2 P Set12</t>
+  </si>
+  <si>
+    <t>Lv2 P Set68</t>
+  </si>
+  <si>
+    <t>Lv1 SP Set68</t>
+  </si>
+  <si>
+    <t>Lv1 SP Set12</t>
+  </si>
+  <si>
+    <t>Lv2 SP Set12</t>
+  </si>
+  <si>
+    <t>Lv2 SP Set68</t>
+  </si>
+  <si>
+    <t>P AG Set12</t>
+  </si>
+  <si>
+    <t>P CG Set12</t>
+  </si>
+  <si>
+    <t>P SP Set12</t>
+  </si>
+  <si>
+    <t>P SP AG Set12</t>
+  </si>
+  <si>
+    <t>P SP CG Set12</t>
+  </si>
+  <si>
+    <t>SP AG Set12</t>
+  </si>
+  <si>
+    <t>SP CG Set12</t>
+  </si>
+  <si>
+    <t>P AG Set68</t>
+  </si>
+  <si>
+    <t>P CG Set68</t>
+  </si>
+  <si>
+    <t>P SP Set68</t>
+  </si>
+  <si>
+    <t>P SP AG Set68</t>
+  </si>
+  <si>
+    <t>P SP CG Set68</t>
+  </si>
+  <si>
+    <t>SP AG Set68</t>
+  </si>
+  <si>
+    <t>SP CG Set68</t>
   </si>
 </sst>
 </file>
@@ -448,22 +532,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2C880B-DB5D-48F8-9585-27D7A4A7EF6C}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +563,26 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1">
+        <v>30.310067</v>
+      </c>
+      <c r="P1">
+        <v>7.2382669999999996</v>
+      </c>
+      <c r="Q1">
+        <v>10.519969</v>
+      </c>
+      <c r="R1">
+        <v>18.635643000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -496,8 +598,23 @@
       <c r="E2">
         <v>19.045894000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2">
+        <v>29.108352</v>
+      </c>
+      <c r="P2">
+        <v>7.6043399999999997</v>
+      </c>
+      <c r="Q2">
+        <v>10.433971</v>
+      </c>
+      <c r="R2">
+        <v>18.685576999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -513,8 +630,23 @@
       <c r="E3">
         <v>18.610531999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3">
+        <v>29.694611999999999</v>
+      </c>
+      <c r="P3">
+        <v>8.8752809999999993</v>
+      </c>
+      <c r="Q3">
+        <v>8.9082410000000003</v>
+      </c>
+      <c r="R3">
+        <v>27.868390999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -530,8 +662,23 @@
       <c r="E4">
         <v>20.854734000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4">
+        <v>28.309262</v>
+      </c>
+      <c r="P4">
+        <v>9.3239560000000008</v>
+      </c>
+      <c r="Q4">
+        <v>8.8783840000000005</v>
+      </c>
+      <c r="R4">
+        <v>26.849734000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -547,8 +694,23 @@
       <c r="E5">
         <v>19.458272000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <v>6.42652</v>
+      </c>
+      <c r="P5">
+        <v>5.9470450000000001</v>
+      </c>
+      <c r="Q5">
+        <v>6.0274039999999998</v>
+      </c>
+      <c r="R5">
+        <v>6.3731790000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -564,8 +726,23 @@
       <c r="E6">
         <v>18.566897999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>7.537954</v>
+      </c>
+      <c r="P6">
+        <v>7.0236939999999999</v>
+      </c>
+      <c r="Q6">
+        <v>7.1245810000000001</v>
+      </c>
+      <c r="R6">
+        <v>7.4723959999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -581,8 +758,23 @@
       <c r="E7">
         <v>21.005955</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7">
+        <v>5.8585039999999999</v>
+      </c>
+      <c r="P7">
+        <v>5.7689320000000004</v>
+      </c>
+      <c r="Q7">
+        <v>5.9382359999999998</v>
+      </c>
+      <c r="R7">
+        <v>5.854889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -598,8 +790,23 @@
       <c r="E8">
         <v>19.055036000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8">
+        <v>6.9514630000000004</v>
+      </c>
+      <c r="P8">
+        <v>6.8411730000000004</v>
+      </c>
+      <c r="Q8">
+        <v>7.0334859999999999</v>
+      </c>
+      <c r="R8">
+        <v>6.9455939999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -615,8 +822,23 @@
       <c r="E9">
         <v>18.648312000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9">
+        <v>6.0095799999999997</v>
+      </c>
+      <c r="P9">
+        <v>6.1564399999999999</v>
+      </c>
+      <c r="Q9">
+        <v>6.1061329999999998</v>
+      </c>
+      <c r="R9">
+        <v>6.0451499999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -632,8 +854,23 @@
       <c r="E10">
         <v>20.725473000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10">
+        <v>7.0593300000000001</v>
+      </c>
+      <c r="P10">
+        <v>7.2178060000000004</v>
+      </c>
+      <c r="Q10">
+        <v>7.207522</v>
+      </c>
+      <c r="R10">
+        <v>7.103707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -650,7 +887,7 @@
         <v>19.443822999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -667,7 +904,7 @@
         <v>18.638102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -682,6 +919,281 @@
       </c>
       <c r="E13">
         <v>20.917268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>29.640280000000001</v>
+      </c>
+      <c r="C15">
+        <v>7.9601839999999999</v>
+      </c>
+      <c r="D15">
+        <v>6.9583130000000004</v>
+      </c>
+      <c r="E15">
+        <v>27.810165999999999</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>28.269686</v>
+      </c>
+      <c r="C16">
+        <v>8.4265620000000006</v>
+      </c>
+      <c r="D16">
+        <v>6.8697520000000001</v>
+      </c>
+      <c r="E16">
+        <v>26.827843999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>29.804067</v>
+      </c>
+      <c r="C17">
+        <v>9.2456019999999999</v>
+      </c>
+      <c r="D17">
+        <v>5.8879130000000002</v>
+      </c>
+      <c r="E17">
+        <v>28.061167000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>28.450479000000001</v>
+      </c>
+      <c r="C18">
+        <v>9.6154010000000003</v>
+      </c>
+      <c r="D18">
+        <v>5.7525709999999997</v>
+      </c>
+      <c r="E18">
+        <v>26.98329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>24.475204999999999</v>
+      </c>
+      <c r="C19">
+        <v>21.657513999999999</v>
+      </c>
+      <c r="D19">
+        <v>6.2247579999999996</v>
+      </c>
+      <c r="E19">
+        <v>23.487114999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>24.281904000000001</v>
+      </c>
+      <c r="C20">
+        <v>21.967513</v>
+      </c>
+      <c r="D20">
+        <v>6.1193520000000001</v>
+      </c>
+      <c r="E20">
+        <v>23.321314000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>23.028977999999999</v>
+      </c>
+      <c r="C21">
+        <v>21.915610000000001</v>
+      </c>
+      <c r="D21">
+        <v>5.3123469999999999</v>
+      </c>
+      <c r="E21">
+        <v>22.776281000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>22.891767999999999</v>
+      </c>
+      <c r="C22">
+        <v>22.169530000000002</v>
+      </c>
+      <c r="D22">
+        <v>5.1442050000000004</v>
+      </c>
+      <c r="E22">
+        <v>22.730146999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>5.734496</v>
+      </c>
+      <c r="C23">
+        <v>5.7714420000000004</v>
+      </c>
+      <c r="D23">
+        <v>5.9586959999999998</v>
+      </c>
+      <c r="E23">
+        <v>5.7529899999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>6.8025989999999998</v>
+      </c>
+      <c r="C24">
+        <v>6.8405180000000003</v>
+      </c>
+      <c r="D24">
+        <v>7.0536599999999998</v>
+      </c>
+      <c r="E24">
+        <v>6.8244300000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>9.2577730000000003</v>
+      </c>
+      <c r="C25">
+        <v>11.548959</v>
+      </c>
+      <c r="D25">
+        <v>20.398139</v>
+      </c>
+      <c r="E25">
+        <v>9.5287970000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>10.298450000000001</v>
+      </c>
+      <c r="C26">
+        <v>12.782442</v>
+      </c>
+      <c r="D26">
+        <v>20.686105000000001</v>
+      </c>
+      <c r="E26">
+        <v>10.692598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>6.2658110000000002</v>
+      </c>
+      <c r="C28">
+        <v>5.9456600000000002</v>
+      </c>
+      <c r="D28">
+        <v>6.000292</v>
+      </c>
+      <c r="E28">
+        <v>6.2643639999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>7.3603719999999999</v>
+      </c>
+      <c r="C29">
+        <v>7.0195489999999996</v>
+      </c>
+      <c r="D29">
+        <v>7.0966379999999996</v>
+      </c>
+      <c r="E29">
+        <v>7.3522210000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>5.7938580000000002</v>
+      </c>
+      <c r="C30">
+        <v>5.7686979999999997</v>
+      </c>
+      <c r="D30">
+        <v>5.9866809999999999</v>
+      </c>
+      <c r="E30">
+        <v>5.7983419999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31">
+        <v>6.8620089999999996</v>
+      </c>
+      <c r="C31">
+        <v>6.8360700000000003</v>
+      </c>
+      <c r="D31">
+        <v>7.0844940000000003</v>
+      </c>
+      <c r="E31">
+        <v>6.8683569999999996</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c6a9ebbaaad6f6c/Desktop/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShinkaVII\Desktop\FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{07962266-53D2-49EF-B05B-C26E3E0B00EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33291F3E-25E0-41DF-BD9E-1DADCE6594A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAF53A1-90FB-43EB-87FD-C757E4184873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EEF7AAB3-A8D8-4563-81EF-DA7446F4CF39}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{EEF7AAB3-A8D8-4563-81EF-DA7446F4CF39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Architecture</t>
   </si>
@@ -131,46 +131,70 @@
     <t>Lv2 SP Set68</t>
   </si>
   <si>
-    <t>P AG Set12</t>
-  </si>
-  <si>
-    <t>P CG Set12</t>
-  </si>
-  <si>
-    <t>P SP Set12</t>
-  </si>
-  <si>
-    <t>P SP AG Set12</t>
-  </si>
-  <si>
-    <t>P SP CG Set12</t>
-  </si>
-  <si>
     <t>SP AG Set12</t>
   </si>
   <si>
     <t>SP CG Set12</t>
   </si>
   <si>
-    <t>P AG Set68</t>
-  </si>
-  <si>
-    <t>P CG Set68</t>
-  </si>
-  <si>
-    <t>P SP Set68</t>
-  </si>
-  <si>
-    <t>P SP AG Set68</t>
-  </si>
-  <si>
-    <t>P SP CG Set68</t>
-  </si>
-  <si>
     <t>SP AG Set68</t>
   </si>
   <si>
     <t>SP CG Set68</t>
+  </si>
+  <si>
+    <t>epoch  41 set 12</t>
+  </si>
+  <si>
+    <t>epoch  73 set 12</t>
+  </si>
+  <si>
+    <t>ag9 set12</t>
+  </si>
+  <si>
+    <t>ag19 set12</t>
+  </si>
+  <si>
+    <t>cg9 set12</t>
+  </si>
+  <si>
+    <t>cg19 set12</t>
+  </si>
+  <si>
+    <t>p9 set12</t>
+  </si>
+  <si>
+    <t>p19 set12</t>
+  </si>
+  <si>
+    <t>sp9 set12</t>
+  </si>
+  <si>
+    <t>sp19 set12</t>
+  </si>
+  <si>
+    <t>pw9 set12</t>
+  </si>
+  <si>
+    <t>pw19 set12</t>
+  </si>
+  <si>
+    <t>sb9 set12</t>
+  </si>
+  <si>
+    <t>sb19 set12</t>
+  </si>
+  <si>
+    <t>tested with recurrsion 1</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Prewitt</t>
+  </si>
+  <si>
+    <t>Sobel</t>
   </si>
 </sst>
 </file>
@@ -212,8 +236,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,10 +254,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,22 +553,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2C880B-DB5D-48F8-9585-27D7A4A7EF6C}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,23 +587,8 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1">
-        <v>30.310067</v>
-      </c>
-      <c r="P1">
-        <v>7.2382669999999996</v>
-      </c>
-      <c r="Q1">
-        <v>10.519969</v>
-      </c>
-      <c r="R1">
-        <v>18.635643000000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -598,23 +604,8 @@
       <c r="E2">
         <v>19.045894000000001</v>
       </c>
-      <c r="N2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2">
-        <v>29.108352</v>
-      </c>
-      <c r="P2">
-        <v>7.6043399999999997</v>
-      </c>
-      <c r="Q2">
-        <v>10.433971</v>
-      </c>
-      <c r="R2">
-        <v>18.685576999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -630,23 +621,8 @@
       <c r="E3">
         <v>18.610531999999999</v>
       </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3">
-        <v>29.694611999999999</v>
-      </c>
-      <c r="P3">
-        <v>8.8752809999999993</v>
-      </c>
-      <c r="Q3">
-        <v>8.9082410000000003</v>
-      </c>
-      <c r="R3">
-        <v>27.868390999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -662,23 +638,8 @@
       <c r="E4">
         <v>20.854734000000001</v>
       </c>
-      <c r="N4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4">
-        <v>28.309262</v>
-      </c>
-      <c r="P4">
-        <v>9.3239560000000008</v>
-      </c>
-      <c r="Q4">
-        <v>8.8783840000000005</v>
-      </c>
-      <c r="R4">
-        <v>26.849734000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -694,23 +655,8 @@
       <c r="E5">
         <v>19.458272000000001</v>
       </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5">
-        <v>6.42652</v>
-      </c>
-      <c r="P5">
-        <v>5.9470450000000001</v>
-      </c>
-      <c r="Q5">
-        <v>6.0274039999999998</v>
-      </c>
-      <c r="R5">
-        <v>6.3731790000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -726,23 +672,8 @@
       <c r="E6">
         <v>18.566897999999998</v>
       </c>
-      <c r="N6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O6">
-        <v>7.537954</v>
-      </c>
-      <c r="P6">
-        <v>7.0236939999999999</v>
-      </c>
-      <c r="Q6">
-        <v>7.1245810000000001</v>
-      </c>
-      <c r="R6">
-        <v>7.4723959999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -758,23 +689,8 @@
       <c r="E7">
         <v>21.005955</v>
       </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7">
-        <v>5.8585039999999999</v>
-      </c>
-      <c r="P7">
-        <v>5.7689320000000004</v>
-      </c>
-      <c r="Q7">
-        <v>5.9382359999999998</v>
-      </c>
-      <c r="R7">
-        <v>5.854889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -790,23 +706,8 @@
       <c r="E8">
         <v>19.055036000000001</v>
       </c>
-      <c r="N8" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8">
-        <v>6.9514630000000004</v>
-      </c>
-      <c r="P8">
-        <v>6.8411730000000004</v>
-      </c>
-      <c r="Q8">
-        <v>7.0334859999999999</v>
-      </c>
-      <c r="R8">
-        <v>6.9455939999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -822,23 +723,8 @@
       <c r="E9">
         <v>18.648312000000001</v>
       </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9">
-        <v>6.0095799999999997</v>
-      </c>
-      <c r="P9">
-        <v>6.1564399999999999</v>
-      </c>
-      <c r="Q9">
-        <v>6.1061329999999998</v>
-      </c>
-      <c r="R9">
-        <v>6.0451499999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -854,23 +740,8 @@
       <c r="E10">
         <v>20.725473000000001</v>
       </c>
-      <c r="N10" t="s">
-        <v>42</v>
-      </c>
-      <c r="O10">
-        <v>7.0593300000000001</v>
-      </c>
-      <c r="P10">
-        <v>7.2178060000000004</v>
-      </c>
-      <c r="Q10">
-        <v>7.207522</v>
-      </c>
-      <c r="R10">
-        <v>7.103707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -887,7 +758,7 @@
         <v>19.443822999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -904,7 +775,7 @@
         <v>18.638102</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -921,7 +792,7 @@
         <v>20.917268</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -941,7 +812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -958,7 +829,7 @@
         <v>26.827843999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -975,7 +846,7 @@
         <v>28.061167000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -992,7 +863,7 @@
         <v>26.98329</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1009,7 +880,7 @@
         <v>23.487114999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +897,7 @@
         <v>23.321314000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1043,7 +914,7 @@
         <v>22.776281000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1060,7 +931,7 @@
         <v>22.730146999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1077,7 +948,7 @@
         <v>5.7529899999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1094,7 +965,7 @@
         <v>6.8244300000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1111,7 +982,7 @@
         <v>9.5287970000000008</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1128,9 +999,9 @@
         <v>10.692598</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>6.2658110000000002</v>
@@ -1145,9 +1016,9 @@
         <v>6.2643639999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>7.3603719999999999</v>
@@ -1162,9 +1033,9 @@
         <v>7.3522210000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>5.7938580000000002</v>
@@ -1179,9 +1050,9 @@
         <v>5.7983419999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>6.8620089999999996</v>
@@ -1194,10 +1065,284 @@
       </c>
       <c r="E31">
         <v>6.8683569999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>28.044080000000001</v>
+      </c>
+      <c r="C33">
+        <v>17.462420000000002</v>
+      </c>
+      <c r="D33">
+        <v>5.3194350000000004</v>
+      </c>
+      <c r="E33">
+        <v>25.771159999999998</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>29.14376</v>
+      </c>
+      <c r="C34">
+        <v>14.95025</v>
+      </c>
+      <c r="D34">
+        <v>5.2912530000000002</v>
+      </c>
+      <c r="E34">
+        <v>24.96002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>27.316490000000002</v>
+      </c>
+      <c r="C36">
+        <v>18.994140000000002</v>
+      </c>
+      <c r="D36">
+        <v>5.3269770000000003</v>
+      </c>
+      <c r="E36">
+        <v>25.800799999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>29.005310000000001</v>
+      </c>
+      <c r="C37">
+        <v>15.144220000000001</v>
+      </c>
+      <c r="D37">
+        <v>5.2978120000000004</v>
+      </c>
+      <c r="E37">
+        <v>24.829319999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>27.655860000000001</v>
+      </c>
+      <c r="C38">
+        <v>10.26103</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>25.995519999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>28.77703</v>
+      </c>
+      <c r="C39">
+        <v>10.071020000000001</v>
+      </c>
+      <c r="D39">
+        <v>5.3120580000000004</v>
+      </c>
+      <c r="E39">
+        <v>25.72963</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40">
+        <v>25.027239999999999</v>
+      </c>
+      <c r="C40">
+        <v>16.336739999999999</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>22.403379999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41">
+        <v>24.3887</v>
+      </c>
+      <c r="C41">
+        <v>13.409560000000001</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>21.12914</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>13.41835</v>
+      </c>
+      <c r="C42">
+        <v>13.38209</v>
+      </c>
+      <c r="D42">
+        <v>13.123749999999999</v>
+      </c>
+      <c r="E42">
+        <v>13.388199999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>12.72312</v>
+      </c>
+      <c r="C43">
+        <v>14.78912</v>
+      </c>
+      <c r="D43">
+        <v>11.70614</v>
+      </c>
+      <c r="E43">
+        <v>14.47709</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>26.66658</v>
+      </c>
+      <c r="C45">
+        <v>13.84015</v>
+      </c>
+      <c r="D45">
+        <v>5.2888190000000002</v>
+      </c>
+      <c r="E45">
+        <v>24.173159999999999</v>
+      </c>
+      <c r="F45">
+        <v>27.830649999999999</v>
+      </c>
+      <c r="G45">
+        <v>27.889050000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>22.73676</v>
+      </c>
+      <c r="C46">
+        <v>8.0395409999999998</v>
+      </c>
+      <c r="D46">
+        <v>5.3445200000000002</v>
+      </c>
+      <c r="E46">
+        <v>17.767230000000001</v>
+      </c>
+      <c r="F46">
+        <v>31.13298</v>
+      </c>
+      <c r="G46">
+        <v>31.09282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <v>26.741350000000001</v>
+      </c>
+      <c r="C47">
+        <v>13.320729999999999</v>
+      </c>
+      <c r="D47">
+        <v>5.3043279999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>24.226929999999999</v>
+      </c>
+      <c r="F47">
+        <v>27.82178</v>
+      </c>
+      <c r="G47">
+        <v>27.8264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <v>22.728539999999999</v>
+      </c>
+      <c r="C48">
+        <v>8.1983999999999995</v>
+      </c>
+      <c r="D48">
+        <v>5.3337690000000002</v>
+      </c>
+      <c r="E48">
+        <v>17.843530000000001</v>
+      </c>
+      <c r="F48">
+        <v>30.21367</v>
+      </c>
+      <c r="G48">
+        <v>30.268190000000001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>